--- a/fypdata.xlsx
+++ b/fypdata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMLS\Desktop\Projects\data science\ml-crime\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMLS\Desktop\Projects\django\dj-ml-crime\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>381a</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>BWP</t>
+  </si>
+  <si>
+    <t>Offense_Code</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,9 @@
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C2" s="4">
         <v>2019</v>
       </c>
